--- a/team_specific_matrix/Westminster (PA)_A.xlsx
+++ b/team_specific_matrix/Westminster (PA)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,13 +734,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.2638888888888889</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
   </sheetData>
